--- a/data/commerical-Vs-printed-comparison/data-taking-raw/printed-data-new-scale-160429.xlsx
+++ b/data/commerical-Vs-printed-comparison/data-taking-raw/printed-data-new-scale-160429.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
   <si>
     <t>Trial 1</t>
   </si>
@@ -397,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,12 +565,12 @@
         <v>298.64388400000001</v>
       </c>
       <c r="K7">
-        <f>J7-200</f>
-        <v>98.643884000000014</v>
+        <f>J7-300</f>
+        <v>-1.3561159999999859</v>
       </c>
       <c r="L7">
-        <f>100*(K7/200)</f>
-        <v>49.321942000000007</v>
+        <f>100*(K7/300)</f>
+        <v>-0.45203866666666198</v>
       </c>
       <c r="M7">
         <f>STDEV(B7,E7,H7)</f>
@@ -728,19 +728,19 @@
         <v>200.56593200000003</v>
       </c>
       <c r="K15">
-        <f>J15-50</f>
-        <v>150.56593200000003</v>
+        <f>J15-200</f>
+        <v>0.56593200000003208</v>
       </c>
       <c r="L15">
-        <f>100*(K15/50)</f>
-        <v>301.13186400000006</v>
+        <f>100*(K15/200)</f>
+        <v>0.28296600000001604</v>
       </c>
       <c r="M15">
-        <f t="shared" ref="M15:M40" si="0">STDEV(B15,E15,H15)</f>
+        <f t="shared" ref="M15:M31" si="0">STDEV(B15,E15,H15)</f>
         <v>0.86007751588640702</v>
       </c>
       <c r="N15">
-        <f t="shared" ref="N15:N40" si="1">100*(M15/J15)</f>
+        <f t="shared" ref="N15:N31" si="1">100*(M15/J15)</f>
         <v>0.42882532806538992</v>
       </c>
     </row>
@@ -891,12 +891,12 @@
         <v>48.731143999999993</v>
       </c>
       <c r="K23">
-        <f>J23-20</f>
-        <v>28.731143999999993</v>
+        <f>J23-50</f>
+        <v>-1.2688560000000066</v>
       </c>
       <c r="L23">
-        <f>100*(K23/20)</f>
-        <v>143.65571999999997</v>
+        <f>100*(K23/50)</f>
+        <v>-2.5377120000000133</v>
       </c>
       <c r="M23">
         <f t="shared" si="0"/>
@@ -1050,16 +1050,16 @@
         <v>27.339999999999996</v>
       </c>
       <c r="J31">
-        <f t="shared" ref="J31:J40" si="2">1.0038*AVERAGE(B31,E31,H31)</f>
+        <f t="shared" ref="J31" si="2">1.0038*AVERAGE(B31,E31,H31)</f>
         <v>27.778491999999996</v>
       </c>
       <c r="K31">
-        <f>J31-10</f>
-        <v>17.778491999999996</v>
+        <f>J31-30</f>
+        <v>-2.2215080000000036</v>
       </c>
       <c r="L31">
-        <f>100*(K31/10)</f>
-        <v>177.78491999999997</v>
+        <f>100*(K31/30)</f>
+        <v>-7.4050266666666777</v>
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
@@ -1217,19 +1217,19 @@
         <v>17.941251999999999</v>
       </c>
       <c r="K39">
-        <f t="shared" ref="K39" si="4">J39-10</f>
-        <v>7.9412519999999986</v>
+        <f>J39-20</f>
+        <v>-2.0587480000000014</v>
       </c>
       <c r="L39">
-        <f t="shared" ref="L39" si="5">100*(K39/10)</f>
-        <v>79.412519999999986</v>
+        <f>100*(K39/20)</f>
+        <v>-10.293740000000007</v>
       </c>
       <c r="M39">
-        <f t="shared" ref="M39" si="6">STDEV(B39,E39,H39)</f>
+        <f t="shared" ref="M39" si="4">STDEV(B39,E39,H39)</f>
         <v>1.8702228031262311</v>
       </c>
       <c r="N39">
-        <f t="shared" ref="N39" si="7">100*(M39/J39)</f>
+        <f t="shared" ref="N39" si="5">100*(M39/J39)</f>
         <v>10.424148789205075</v>
       </c>
     </row>
@@ -1376,35 +1376,38 @@
         <v>7.68</v>
       </c>
       <c r="J47">
-        <f t="shared" ref="J47" si="8">1.0038*AVERAGE(B47,E47,H47)</f>
+        <f t="shared" ref="J47" si="6">1.0038*AVERAGE(B47,E47,H47)</f>
         <v>7.6355719999999998</v>
       </c>
       <c r="K47">
-        <f t="shared" ref="K47" si="9">J47-10</f>
+        <f t="shared" ref="K47" si="7">J47-10</f>
         <v>-2.3644280000000002</v>
       </c>
       <c r="L47">
-        <f t="shared" ref="L47" si="10">100*(K47/10)</f>
+        <f t="shared" ref="L47" si="8">100*(K47/10)</f>
         <v>-23.644280000000002</v>
       </c>
       <c r="M47">
-        <f t="shared" ref="M47" si="11">STDEV(B47,E47,H47)</f>
+        <f t="shared" ref="M47" si="9">STDEV(B47,E47,H47)</f>
         <v>0.37541088600802902</v>
       </c>
       <c r="N47">
-        <f t="shared" ref="N47" si="12">100*(M47/J47)</f>
+        <f t="shared" ref="N47" si="10">100*(M47/J47)</f>
         <v>4.9166046238320984</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>14</v>
       </c>
       <c r="E49" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>16</v>
       </c>
